--- a/Graphs/hose_insulation_sweep_results.xlsx
+++ b/Graphs/hose_insulation_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="120" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="210" uniqueCount="140">
   <si>
     <t>Lh2 Feed pressure (bar)_ 1</t>
   </si>
@@ -193,6 +193,246 @@
   </si>
   <si>
     <t>LH2 consumed(kg)_20</t>
+  </si>
+  <si>
+    <t>Hose thermal conductivity (W/m)_ 1</t>
+  </si>
+  <si>
+    <t>Hose thermal conductivity (W/m)_ 2</t>
+  </si>
+  <si>
+    <t>Hose thermal conductivity (W/m)_ 3</t>
+  </si>
+  <si>
+    <t>Hose thermal conductivity (W/m)_ 4</t>
+  </si>
+  <si>
+    <t>Hose thermal conductivity (W/m)_ 5</t>
+  </si>
+  <si>
+    <t>Hose thermal conductivity (W/m)_ 6</t>
+  </si>
+  <si>
+    <t>Hose thermal conductivity (W/m)_ 7</t>
+  </si>
+  <si>
+    <t>Hose thermal conductivity (W/m)_ 8</t>
+  </si>
+  <si>
+    <t>Hose thermal conductivity (W/m)_ 9</t>
+  </si>
+  <si>
+    <t>Hose thermal conductivity (W/m)_10</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 1</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 2</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 3</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 4</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 5</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 6</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 7</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 8</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 9</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_10</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 1</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 2</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 3</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 4</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 5</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 6</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 7</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 8</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 9</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_10</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 1</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 2</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 3</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 4</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 5</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 6</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 7</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 8</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 9</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_10</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 1</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 2</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 3</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 4</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 5</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 6</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 7</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 8</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 9</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_10</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 1</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 2</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 3</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 4</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 5</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 6</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 7</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 8</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 9</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_10</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 1</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 2</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 3</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 4</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 5</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 6</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 7</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 8</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 9</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_10</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 1</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 2</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 3</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 4</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 5</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 6</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 7</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 8</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 9</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_10</t>
   </si>
 </sst>
 </file>
@@ -238,254 +478,374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH2"/>
+  <dimension ref="A1:CL2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="true"/>
-    <col min="2" max="2" width="24.28515625" customWidth="true"/>
-    <col min="3" max="3" width="24.28515625" customWidth="true"/>
-    <col min="4" max="4" width="24.28515625" customWidth="true"/>
-    <col min="5" max="5" width="24.28515625" customWidth="true"/>
-    <col min="6" max="6" width="24.28515625" customWidth="true"/>
-    <col min="7" max="7" width="24.28515625" customWidth="true"/>
-    <col min="8" max="8" width="24.28515625" customWidth="true"/>
-    <col min="9" max="9" width="24.28515625" customWidth="true"/>
-    <col min="10" max="10" width="24.85546875" customWidth="true"/>
-    <col min="11" max="11" width="24.85546875" customWidth="true"/>
-    <col min="12" max="12" width="24.85546875" customWidth="true"/>
-    <col min="13" max="13" width="24.85546875" customWidth="true"/>
-    <col min="14" max="14" width="24.85546875" customWidth="true"/>
-    <col min="15" max="15" width="24.85546875" customWidth="true"/>
-    <col min="16" max="16" width="24.85546875" customWidth="true"/>
-    <col min="17" max="17" width="24.85546875" customWidth="true"/>
-    <col min="18" max="18" width="24.85546875" customWidth="true"/>
-    <col min="19" max="19" width="24.85546875" customWidth="true"/>
-    <col min="20" max="20" width="24.85546875" customWidth="true"/>
-    <col min="21" max="21" width="34.7109375" customWidth="true"/>
-    <col min="22" max="22" width="34.7109375" customWidth="true"/>
-    <col min="23" max="23" width="34.7109375" customWidth="true"/>
-    <col min="24" max="24" width="34.7109375" customWidth="true"/>
-    <col min="25" max="25" width="34.7109375" customWidth="true"/>
-    <col min="26" max="26" width="34.7109375" customWidth="true"/>
-    <col min="27" max="27" width="34.7109375" customWidth="true"/>
-    <col min="28" max="28" width="34.7109375" customWidth="true"/>
-    <col min="29" max="29" width="34.7109375" customWidth="true"/>
-    <col min="30" max="30" width="35.28515625" customWidth="true"/>
-    <col min="31" max="31" width="35.28515625" customWidth="true"/>
-    <col min="32" max="32" width="35.28515625" customWidth="true"/>
-    <col min="33" max="33" width="35.28515625" customWidth="true"/>
-    <col min="34" max="34" width="35.28515625" customWidth="true"/>
-    <col min="35" max="35" width="35.28515625" customWidth="true"/>
-    <col min="36" max="36" width="35.28515625" customWidth="true"/>
-    <col min="37" max="37" width="35.28515625" customWidth="true"/>
-    <col min="38" max="38" width="35.28515625" customWidth="true"/>
-    <col min="39" max="39" width="35.28515625" customWidth="true"/>
-    <col min="40" max="40" width="35.28515625" customWidth="true"/>
-    <col min="41" max="41" width="19.7109375" customWidth="true"/>
-    <col min="42" max="42" width="19.7109375" customWidth="true"/>
-    <col min="43" max="43" width="19.7109375" customWidth="true"/>
-    <col min="44" max="44" width="19.7109375" customWidth="true"/>
-    <col min="45" max="45" width="19.7109375" customWidth="true"/>
-    <col min="46" max="46" width="19.7109375" customWidth="true"/>
-    <col min="47" max="47" width="19.7109375" customWidth="true"/>
-    <col min="48" max="48" width="19.7109375" customWidth="true"/>
-    <col min="49" max="49" width="19.7109375" customWidth="true"/>
-    <col min="50" max="50" width="20.28515625" customWidth="true"/>
-    <col min="51" max="51" width="20.28515625" customWidth="true"/>
-    <col min="52" max="52" width="20.28515625" customWidth="true"/>
-    <col min="53" max="53" width="20.28515625" customWidth="true"/>
-    <col min="54" max="54" width="20.28515625" customWidth="true"/>
-    <col min="55" max="55" width="20.28515625" customWidth="true"/>
-    <col min="56" max="56" width="20.28515625" customWidth="true"/>
-    <col min="57" max="57" width="20.28515625" customWidth="true"/>
-    <col min="58" max="58" width="20.28515625" customWidth="true"/>
-    <col min="59" max="59" width="20.28515625" customWidth="true"/>
-    <col min="60" max="60" width="20.28515625" customWidth="true"/>
+    <col min="1" max="1" width="33" customWidth="true"/>
+    <col min="2" max="2" width="33" customWidth="true"/>
+    <col min="3" max="3" width="33" customWidth="true"/>
+    <col min="4" max="4" width="33" customWidth="true"/>
+    <col min="5" max="5" width="33" customWidth="true"/>
+    <col min="6" max="6" width="33" customWidth="true"/>
+    <col min="7" max="7" width="33" customWidth="true"/>
+    <col min="8" max="8" width="33" customWidth="true"/>
+    <col min="9" max="9" width="33" customWidth="true"/>
+    <col min="10" max="10" width="33.5703125" customWidth="true"/>
+    <col min="11" max="11" width="35.7109375" customWidth="true"/>
+    <col min="12" max="12" width="35.7109375" customWidth="true"/>
+    <col min="13" max="13" width="35.7109375" customWidth="true"/>
+    <col min="14" max="14" width="35.7109375" customWidth="true"/>
+    <col min="15" max="15" width="35.7109375" customWidth="true"/>
+    <col min="16" max="16" width="35.7109375" customWidth="true"/>
+    <col min="17" max="17" width="35.7109375" customWidth="true"/>
+    <col min="18" max="18" width="35.7109375" customWidth="true"/>
+    <col min="19" max="19" width="35.7109375" customWidth="true"/>
+    <col min="20" max="20" width="36.28515625" customWidth="true"/>
+    <col min="21" max="21" width="34.28515625" customWidth="true"/>
+    <col min="22" max="22" width="34.28515625" customWidth="true"/>
+    <col min="23" max="23" width="34.28515625" customWidth="true"/>
+    <col min="24" max="24" width="34.28515625" customWidth="true"/>
+    <col min="25" max="25" width="34.28515625" customWidth="true"/>
+    <col min="26" max="26" width="34.28515625" customWidth="true"/>
+    <col min="27" max="27" width="34.28515625" customWidth="true"/>
+    <col min="28" max="28" width="34.28515625" customWidth="true"/>
+    <col min="29" max="29" width="34.28515625" customWidth="true"/>
+    <col min="30" max="30" width="34.85546875" customWidth="true"/>
+    <col min="31" max="31" width="41.140625" customWidth="true"/>
+    <col min="32" max="32" width="41.140625" customWidth="true"/>
+    <col min="33" max="33" width="41.140625" customWidth="true"/>
+    <col min="34" max="34" width="41.140625" customWidth="true"/>
+    <col min="35" max="35" width="41.140625" customWidth="true"/>
+    <col min="36" max="36" width="41.140625" customWidth="true"/>
+    <col min="37" max="37" width="41.140625" customWidth="true"/>
+    <col min="38" max="38" width="41.140625" customWidth="true"/>
+    <col min="39" max="39" width="41.140625" customWidth="true"/>
+    <col min="40" max="40" width="41.7109375" customWidth="true"/>
+    <col min="41" max="41" width="34.42578125" customWidth="true"/>
+    <col min="42" max="42" width="34.42578125" customWidth="true"/>
+    <col min="43" max="43" width="34.42578125" customWidth="true"/>
+    <col min="44" max="44" width="34.42578125" customWidth="true"/>
+    <col min="45" max="45" width="34.42578125" customWidth="true"/>
+    <col min="46" max="46" width="34.42578125" customWidth="true"/>
+    <col min="47" max="47" width="34.42578125" customWidth="true"/>
+    <col min="48" max="48" width="34.42578125" customWidth="true"/>
+    <col min="49" max="49" width="34.42578125" customWidth="true"/>
+    <col min="50" max="50" width="35" customWidth="true"/>
+    <col min="51" max="51" width="33" customWidth="true"/>
+    <col min="52" max="52" width="33" customWidth="true"/>
+    <col min="53" max="53" width="33" customWidth="true"/>
+    <col min="54" max="54" width="33" customWidth="true"/>
+    <col min="55" max="55" width="33" customWidth="true"/>
+    <col min="56" max="56" width="33" customWidth="true"/>
+    <col min="57" max="57" width="33" customWidth="true"/>
+    <col min="58" max="58" width="33" customWidth="true"/>
+    <col min="59" max="59" width="33" customWidth="true"/>
+    <col min="60" max="60" width="33.5703125" customWidth="true"/>
+    <col min="61" max="61" width="39.85546875" customWidth="true"/>
+    <col min="62" max="62" width="39.85546875" customWidth="true"/>
+    <col min="63" max="63" width="39.85546875" customWidth="true"/>
+    <col min="64" max="64" width="39.85546875" customWidth="true"/>
+    <col min="65" max="65" width="39.85546875" customWidth="true"/>
+    <col min="66" max="66" width="39.85546875" customWidth="true"/>
+    <col min="67" max="67" width="39.85546875" customWidth="true"/>
+    <col min="68" max="68" width="39.85546875" customWidth="true"/>
+    <col min="69" max="69" width="39.85546875" customWidth="true"/>
+    <col min="70" max="70" width="40.42578125" customWidth="true"/>
+    <col min="71" max="71" width="34.7109375" customWidth="true"/>
+    <col min="72" max="72" width="34.7109375" customWidth="true"/>
+    <col min="73" max="73" width="34.7109375" customWidth="true"/>
+    <col min="74" max="74" width="34.7109375" customWidth="true"/>
+    <col min="75" max="75" width="34.7109375" customWidth="true"/>
+    <col min="76" max="76" width="34.7109375" customWidth="true"/>
+    <col min="77" max="77" width="34.7109375" customWidth="true"/>
+    <col min="78" max="78" width="34.7109375" customWidth="true"/>
+    <col min="79" max="79" width="34.7109375" customWidth="true"/>
+    <col min="80" max="80" width="35.28515625" customWidth="true"/>
+    <col min="81" max="81" width="33.42578125" customWidth="true"/>
+    <col min="82" max="82" width="33.42578125" customWidth="true"/>
+    <col min="83" max="83" width="33.42578125" customWidth="true"/>
+    <col min="84" max="84" width="33.42578125" customWidth="true"/>
+    <col min="85" max="85" width="33.42578125" customWidth="true"/>
+    <col min="86" max="86" width="33.42578125" customWidth="true"/>
+    <col min="87" max="87" width="33.42578125" customWidth="true"/>
+    <col min="88" max="88" width="33.42578125" customWidth="true"/>
+    <col min="89" max="89" width="33.42578125" customWidth="true"/>
+    <col min="90" max="90" width="34" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="U1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR1" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS1" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT1" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU1" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV1" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AW1" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="AX1" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY1" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="AZ1" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA1" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB1" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC1" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="BD1" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="BE1" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BF1" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="BG1" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH1" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="BI1" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="BJ1" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK1" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL1" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="BM1" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN1" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="BO1" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="BP1" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="BQ1" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="BR1" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="BS1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="BT1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="BU1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="BV1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="BW1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="BX1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="BY1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="BZ1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="CA1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="CB1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" s="0" t="s">
-        <v>59</v>
+      <c r="CC1" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="CD1" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="CE1" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="CF1" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="CG1" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="CH1" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="CI1" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="CJ1" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="CK1" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="CL1" s="0" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="2">
@@ -493,181 +853,271 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="B2" s="0">
-        <v>0.16237767391887217</v>
+        <v>0.27825594022071243</v>
       </c>
       <c r="C2" s="0">
-        <v>0.26366508987303583</v>
+        <v>0.774263682681127</v>
       </c>
       <c r="D2" s="0">
-        <v>0.42813323987193935</v>
+        <v>2.1544346900318834</v>
       </c>
       <c r="E2" s="0">
-        <v>0.69519279617756058</v>
+        <v>5.9948425031894086</v>
       </c>
       <c r="F2" s="0">
-        <v>1.1288378916846888</v>
+        <v>16.681005372000591</v>
       </c>
       <c r="G2" s="0">
-        <v>1.8329807108324356</v>
+        <v>46.415888336127772</v>
       </c>
       <c r="H2" s="0">
-        <v>2.9763514416313175</v>
+        <v>129.15496650148839</v>
       </c>
       <c r="I2" s="0">
-        <v>4.8329302385717519</v>
+        <v>359.38136638046257</v>
       </c>
       <c r="J2" s="0">
-        <v>7.8475997035146108</v>
+        <v>1000</v>
       </c>
       <c r="K2" s="0">
-        <v>12.742749857031335</v>
+        <v>33.141965457665925</v>
       </c>
       <c r="L2" s="0">
-        <v>20.691380811147901</v>
+        <v>33.136110716834942</v>
       </c>
       <c r="M2" s="0">
-        <v>33.59818286283781</v>
+        <v>33.134976854012315</v>
       </c>
       <c r="N2" s="0">
-        <v>54.555947811685201</v>
+        <v>33.129353810582685</v>
       </c>
       <c r="O2" s="0">
-        <v>88.586679041008239</v>
+        <v>33.108645117419954</v>
       </c>
       <c r="P2" s="0">
-        <v>143.8449888287663</v>
+        <v>33.063645572521693</v>
       </c>
       <c r="Q2" s="0">
-        <v>233.57214690901213</v>
+        <v>33.213774818812269</v>
       </c>
       <c r="R2" s="0">
-        <v>379.26901907322497</v>
+        <v>33.066279543030198</v>
       </c>
       <c r="S2" s="0">
-        <v>615.84821106602612</v>
+        <v>33.930596362904033</v>
       </c>
       <c r="T2" s="0">
-        <v>1000</v>
+        <v>36.472023173587637</v>
       </c>
       <c r="U2" s="0">
+        <v>16.478870255323702</v>
+      </c>
+      <c r="V2" s="0">
+        <v>16.490784089895623</v>
+      </c>
+      <c r="W2" s="0">
+        <v>16.520577061161692</v>
+      </c>
+      <c r="X2" s="0">
+        <v>16.515520265453464</v>
+      </c>
+      <c r="Y2" s="0">
+        <v>16.496914048282346</v>
+      </c>
+      <c r="Z2" s="0">
+        <v>16.506213267017245</v>
+      </c>
+      <c r="AA2" s="0">
+        <v>16.637863443552902</v>
+      </c>
+      <c r="AB2" s="0">
+        <v>16.560166191741377</v>
+      </c>
+      <c r="AC2" s="0">
+        <v>16.425610665458141</v>
+      </c>
+      <c r="AD2" s="0">
+        <v>16.085073291113673</v>
+      </c>
+      <c r="AE2" s="0">
+        <v>0.49722066955784744</v>
+      </c>
+      <c r="AF2" s="0">
+        <v>0.49766806463250407</v>
+      </c>
+      <c r="AG2" s="0">
+        <v>0.49858423423528708</v>
+      </c>
+      <c r="AH2" s="0">
+        <v>0.49851622098882664</v>
+      </c>
+      <c r="AI2" s="0">
+        <v>0.49826605678897362</v>
+      </c>
+      <c r="AJ2" s="0">
+        <v>0.49922544780528116</v>
+      </c>
+      <c r="AK2" s="0">
+        <v>0.50093262612623068</v>
+      </c>
+      <c r="AL2" s="0">
+        <v>0.50081734082575291</v>
+      </c>
+      <c r="AM2" s="0">
+        <v>0.48409436986542592</v>
+      </c>
+      <c r="AN2" s="0">
+        <v>0.4410249800115883</v>
+      </c>
+      <c r="AO2" s="0">
+        <v>29.967320608185332</v>
+      </c>
+      <c r="AP2" s="0">
+        <v>29.758709412450266</v>
+      </c>
+      <c r="AQ2" s="0">
+        <v>29.751579808096615</v>
+      </c>
+      <c r="AR2" s="0">
+        <v>29.746174760799583</v>
+      </c>
+      <c r="AS2" s="0">
+        <v>29.956596802561606</v>
+      </c>
+      <c r="AT2" s="0">
+        <v>29.923316008869413</v>
+      </c>
+      <c r="AU2" s="0">
+        <v>29.807643572551044</v>
+      </c>
+      <c r="AV2" s="0">
+        <v>30.130432833436373</v>
+      </c>
+      <c r="AW2" s="0">
+        <v>30.822020184175145</v>
+      </c>
+      <c r="AX2" s="0">
+        <v>28.620321086128278</v>
+      </c>
+      <c r="AY2" s="0">
+        <v>14.935523301903663</v>
+      </c>
+      <c r="AZ2" s="0">
+        <v>14.764055993699056</v>
+      </c>
+      <c r="BA2" s="0">
+        <v>14.723173510661642</v>
+      </c>
+      <c r="BB2" s="0">
+        <v>14.718042732748149</v>
+      </c>
+      <c r="BC2" s="0">
+        <v>14.879107862290271</v>
+      </c>
+      <c r="BD2" s="0">
+        <v>14.860887893474363</v>
+      </c>
+      <c r="BE2" s="0">
+        <v>14.736258394018826</v>
+      </c>
+      <c r="BF2" s="0">
+        <v>14.915114050891175</v>
+      </c>
+      <c r="BG2" s="0">
+        <v>15.058013645186696</v>
+      </c>
+      <c r="BH2" s="0">
+        <v>15.087456565624155</v>
+      </c>
+      <c r="BI2" s="0">
+        <v>0.49839368347880075</v>
+      </c>
+      <c r="BJ2" s="0">
+        <v>0.49612554728338326</v>
+      </c>
+      <c r="BK2" s="0">
+        <v>0.49487030959797529</v>
+      </c>
+      <c r="BL2" s="0">
+        <v>0.49478774501600908</v>
+      </c>
+      <c r="BM2" s="0">
+        <v>0.49668885822898112</v>
+      </c>
+      <c r="BN2" s="0">
+        <v>0.496632388237638</v>
+      </c>
+      <c r="BO2" s="0">
+        <v>0.49437850926226856</v>
+      </c>
+      <c r="BP2" s="0">
+        <v>0.49501824727653959</v>
+      </c>
+      <c r="BQ2" s="0">
+        <v>0.48854726443005464</v>
+      </c>
+      <c r="BR2" s="0">
+        <v>0.52715888547234913</v>
+      </c>
+      <c r="BS2" s="0">
         <v>302.5</v>
       </c>
-      <c r="V2" s="0">
+      <c r="BT2" s="0">
         <v>302.5</v>
       </c>
-      <c r="W2" s="0">
+      <c r="BU2" s="0">
         <v>302.5</v>
       </c>
-      <c r="X2" s="0">
+      <c r="BV2" s="0">
         <v>302.5</v>
       </c>
-      <c r="Y2" s="0">
+      <c r="BW2" s="0">
         <v>302.5</v>
       </c>
-      <c r="Z2" s="0">
+      <c r="BX2" s="0">
         <v>302.5</v>
       </c>
-      <c r="AA2" s="0">
+      <c r="BY2" s="0">
         <v>302.5</v>
       </c>
-      <c r="AB2" s="0">
-        <v>302.5</v>
-      </c>
-      <c r="AC2" s="0">
-        <v>302.5</v>
-      </c>
-      <c r="AD2" s="0">
-        <v>302.5</v>
-      </c>
-      <c r="AE2" s="0">
-        <v>302.5</v>
-      </c>
-      <c r="AF2" s="0">
-        <v>302.5</v>
-      </c>
-      <c r="AG2" s="0">
-        <v>303</v>
-      </c>
-      <c r="AH2" s="0">
-        <v>302.5</v>
-      </c>
-      <c r="AI2" s="0">
-        <v>302.5</v>
-      </c>
-      <c r="AJ2" s="0">
-        <v>301.5</v>
-      </c>
-      <c r="AK2" s="0">
+      <c r="BZ2" s="0">
         <v>302</v>
       </c>
-      <c r="AL2" s="0">
-        <v>305</v>
-      </c>
-      <c r="AM2" s="0">
-        <v>307</v>
-      </c>
-      <c r="AN2" s="0">
+      <c r="CA2" s="0">
+        <v>304.5</v>
+      </c>
+      <c r="CB2" s="0">
         <v>305.5</v>
       </c>
-      <c r="AO2" s="0">
-        <v>33.141965457665925</v>
-      </c>
-      <c r="AP2" s="0">
-        <v>33.13662388951542</v>
-      </c>
-      <c r="AQ2" s="0">
-        <v>33.136905421532909</v>
-      </c>
-      <c r="AR2" s="0">
-        <v>33.135744711123266</v>
-      </c>
-      <c r="AS2" s="0">
-        <v>33.135108218021976</v>
-      </c>
-      <c r="AT2" s="0">
-        <v>33.133206948259783</v>
-      </c>
-      <c r="AU2" s="0">
-        <v>33.125133325886814</v>
-      </c>
-      <c r="AV2" s="0">
-        <v>33.124367547079508</v>
-      </c>
-      <c r="AW2" s="0">
-        <v>33.11251853630052</v>
-      </c>
-      <c r="AX2" s="0">
-        <v>33.101413872495172</v>
-      </c>
-      <c r="AY2" s="0">
-        <v>33.080057573634093</v>
-      </c>
-      <c r="AZ2" s="0">
-        <v>33.050911023248034</v>
-      </c>
-      <c r="BA2" s="0">
-        <v>33.240307154683123</v>
-      </c>
-      <c r="BB2" s="0">
-        <v>33.202204569426797</v>
-      </c>
-      <c r="BC2" s="0">
-        <v>33.192605896286793</v>
-      </c>
-      <c r="BD2" s="0">
-        <v>33.065598597303598</v>
-      </c>
-      <c r="BE2" s="0">
-        <v>33.147950879874692</v>
-      </c>
-      <c r="BF2" s="0">
-        <v>34.09534265143737</v>
-      </c>
-      <c r="BG2" s="0">
-        <v>35.251923636546657</v>
-      </c>
-      <c r="BH2" s="0">
-        <v>36.472023173587637</v>
+      <c r="CC2" s="0">
+        <v>269</v>
+      </c>
+      <c r="CD2" s="0">
+        <v>268.5</v>
+      </c>
+      <c r="CE2" s="0">
+        <v>268.5</v>
+      </c>
+      <c r="CF2" s="0">
+        <v>268.5</v>
+      </c>
+      <c r="CG2" s="0">
+        <v>269</v>
+      </c>
+      <c r="CH2" s="0">
+        <v>269</v>
+      </c>
+      <c r="CI2" s="0">
+        <v>269</v>
+      </c>
+      <c r="CJ2" s="0">
+        <v>270.5</v>
+      </c>
+      <c r="CK2" s="0">
+        <v>272.5</v>
+      </c>
+      <c r="CL2" s="0">
+        <v>266.5</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/hose_insulation_sweep_results.xlsx
+++ b/Graphs/hose_insulation_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="54" uniqueCount="9">
   <si>
     <t>Hose thermal conductivity (W/m)</t>
   </si>
@@ -136,28 +136,28 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="B2" s="0">
-        <v>33.141965457665925</v>
+        <v>32.747103886099808</v>
       </c>
       <c r="C2" s="0">
-        <v>16.478870255323702</v>
+        <v>16.235291772124171</v>
       </c>
       <c r="D2" s="0">
-        <v>0.49722066955784744</v>
+        <v>0.49577794203094644</v>
       </c>
       <c r="E2" s="0">
-        <v>29.967320608185332</v>
+        <v>29.329734352279132</v>
       </c>
       <c r="F2" s="0">
-        <v>14.935523301903663</v>
+        <v>14.544228932394846</v>
       </c>
       <c r="G2" s="0">
-        <v>0.49839368347880075</v>
+        <v>0.49588682794410155</v>
       </c>
       <c r="H2" s="0">
-        <v>302.5</v>
+        <v>298.94080919269715</v>
       </c>
       <c r="I2" s="0">
-        <v>269</v>
+        <v>266.09999999999997</v>
       </c>
     </row>
     <row r="3">
@@ -165,28 +165,28 @@
         <v>0.27825594022071243</v>
       </c>
       <c r="B3" s="0">
-        <v>33.136110716834942</v>
+        <v>32.746957623634138</v>
       </c>
       <c r="C3" s="0">
-        <v>16.490784089895623</v>
+        <v>16.236790365078853</v>
       </c>
       <c r="D3" s="0">
-        <v>0.49766806463250407</v>
+        <v>0.49582591921029129</v>
       </c>
       <c r="E3" s="0">
-        <v>29.758709412450266</v>
+        <v>29.330781263964809</v>
       </c>
       <c r="F3" s="0">
-        <v>14.764055993699056</v>
+        <v>14.552002193929548</v>
       </c>
       <c r="G3" s="0">
-        <v>0.49612554728338326</v>
+        <v>0.49613414872817713</v>
       </c>
       <c r="H3" s="0">
-        <v>302.5</v>
+        <v>299.06642613274232</v>
       </c>
       <c r="I3" s="0">
-        <v>268.5</v>
+        <v>265.97842601200381</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>0.774263682681127</v>
       </c>
       <c r="B4" s="0">
-        <v>33.134976854012315</v>
+        <v>32.794574618151223</v>
       </c>
       <c r="C4" s="0">
-        <v>16.520577061161692</v>
+        <v>16.281063580926102</v>
       </c>
       <c r="D4" s="0">
-        <v>0.49858423423528708</v>
+        <v>0.49645600744931806</v>
       </c>
       <c r="E4" s="0">
-        <v>29.751579808096615</v>
+        <v>29.332435052006815</v>
       </c>
       <c r="F4" s="0">
-        <v>14.723173510661642</v>
+        <v>14.538311036257536</v>
       </c>
       <c r="G4" s="0">
-        <v>0.49487030959797529</v>
+        <v>0.4956394179508421</v>
       </c>
       <c r="H4" s="0">
-        <v>302.5</v>
+        <v>299</v>
       </c>
       <c r="I4" s="0">
-        <v>268.5</v>
+        <v>265.52392383574573</v>
       </c>
     </row>
     <row r="5">
@@ -223,28 +223,28 @@
         <v>2.1544346900318834</v>
       </c>
       <c r="B5" s="0">
-        <v>33.129353810582685</v>
+        <v>32.789197862504444</v>
       </c>
       <c r="C5" s="0">
-        <v>16.515520265453464</v>
+        <v>16.275392359784536</v>
       </c>
       <c r="D5" s="0">
-        <v>0.49851622098882664</v>
+        <v>0.49636445600262752</v>
       </c>
       <c r="E5" s="0">
-        <v>29.746174760799583</v>
+        <v>29.327566802312639</v>
       </c>
       <c r="F5" s="0">
-        <v>14.718042732748149</v>
+        <v>14.586131382101064</v>
       </c>
       <c r="G5" s="0">
-        <v>0.49478774501600908</v>
+        <v>0.49735225156663415</v>
       </c>
       <c r="H5" s="0">
-        <v>302.5</v>
+        <v>299</v>
       </c>
       <c r="I5" s="0">
-        <v>268.5</v>
+        <v>265.40362503705586</v>
       </c>
     </row>
     <row r="6">
@@ -252,28 +252,28 @@
         <v>5.9948425031894086</v>
       </c>
       <c r="B6" s="0">
-        <v>33.108645117419954</v>
+        <v>32.771219651520674</v>
       </c>
       <c r="C6" s="0">
-        <v>16.496914048282346</v>
+        <v>16.25987024785578</v>
       </c>
       <c r="D6" s="0">
-        <v>0.49826605678897362</v>
+        <v>0.49616310960526844</v>
       </c>
       <c r="E6" s="0">
-        <v>29.956596802561606</v>
+        <v>29.359226109798264</v>
       </c>
       <c r="F6" s="0">
-        <v>14.879107862290271</v>
+        <v>14.559664809667597</v>
       </c>
       <c r="G6" s="0">
-        <v>0.49668885822898112</v>
+        <v>0.49591446161479358</v>
       </c>
       <c r="H6" s="0">
-        <v>302.5</v>
+        <v>299</v>
       </c>
       <c r="I6" s="0">
-        <v>269</v>
+        <v>266.03888818401003</v>
       </c>
     </row>
     <row r="7">
@@ -281,28 +281,28 @@
         <v>16.681005372000591</v>
       </c>
       <c r="B7" s="0">
-        <v>33.063645572521693</v>
+        <v>32.77153922543242</v>
       </c>
       <c r="C7" s="0">
-        <v>16.506213267017245</v>
+        <v>16.301069852983638</v>
       </c>
       <c r="D7" s="0">
-        <v>0.49922544780528116</v>
+        <v>0.49741544761904743</v>
       </c>
       <c r="E7" s="0">
-        <v>29.923316008869413</v>
+        <v>29.363274828059268</v>
       </c>
       <c r="F7" s="0">
-        <v>14.860887893474363</v>
+        <v>14.589906085249872</v>
       </c>
       <c r="G7" s="0">
-        <v>0.496632388237638</v>
+        <v>0.49687598439489777</v>
       </c>
       <c r="H7" s="0">
-        <v>302.5</v>
+        <v>299.06252143878072</v>
       </c>
       <c r="I7" s="0">
-        <v>269</v>
+        <v>265.87553477537955</v>
       </c>
     </row>
     <row r="8">
@@ -310,28 +310,28 @@
         <v>46.415888336127772</v>
       </c>
       <c r="B8" s="0">
-        <v>33.213774818812269</v>
+        <v>32.839755006843554</v>
       </c>
       <c r="C8" s="0">
-        <v>16.637863443552902</v>
+        <v>16.359930580749399</v>
       </c>
       <c r="D8" s="0">
-        <v>0.50093262612623068</v>
+        <v>0.49817456242715924</v>
       </c>
       <c r="E8" s="0">
-        <v>29.807643572551044</v>
+        <v>29.417666074070887</v>
       </c>
       <c r="F8" s="0">
-        <v>14.736258394018826</v>
+        <v>14.512867006680192</v>
       </c>
       <c r="G8" s="0">
-        <v>0.49437850926226856</v>
+        <v>0.49333849157639403</v>
       </c>
       <c r="H8" s="0">
-        <v>302.5</v>
+        <v>299.5</v>
       </c>
       <c r="I8" s="0">
-        <v>269</v>
+        <v>266.54062844553243</v>
       </c>
     </row>
     <row r="9">
@@ -339,28 +339,28 @@
         <v>129.15496650148839</v>
       </c>
       <c r="B9" s="0">
-        <v>33.066279543030198</v>
+        <v>32.83090377585529</v>
       </c>
       <c r="C9" s="0">
-        <v>16.560166191741377</v>
+        <v>16.307128354178229</v>
       </c>
       <c r="D9" s="0">
-        <v>0.50081734082575291</v>
+        <v>0.49670056193125328</v>
       </c>
       <c r="E9" s="0">
-        <v>30.130432833436373</v>
+        <v>29.627711583609319</v>
       </c>
       <c r="F9" s="0">
-        <v>14.915114050891175</v>
+        <v>14.574526125185091</v>
       </c>
       <c r="G9" s="0">
-        <v>0.49501824727653959</v>
+        <v>0.49192210083643551</v>
       </c>
       <c r="H9" s="0">
-        <v>302</v>
+        <v>298.5183997912448</v>
       </c>
       <c r="I9" s="0">
-        <v>270.5</v>
+        <v>267.43959451643218</v>
       </c>
     </row>
     <row r="10">
@@ -368,28 +368,28 @@
         <v>359.38136638046257</v>
       </c>
       <c r="B10" s="0">
-        <v>33.930596362904033</v>
+        <v>33.707146251481262</v>
       </c>
       <c r="C10" s="0">
-        <v>16.425610665458141</v>
+        <v>16.247002486075406</v>
       </c>
       <c r="D10" s="0">
-        <v>0.48409436986542592</v>
+        <v>0.48200468722152445</v>
       </c>
       <c r="E10" s="0">
-        <v>30.822020184175145</v>
+        <v>30.298922333187861</v>
       </c>
       <c r="F10" s="0">
-        <v>15.058013645186696</v>
+        <v>14.811103447021537</v>
       </c>
       <c r="G10" s="0">
-        <v>0.48854726443005464</v>
+        <v>0.48883268137884317</v>
       </c>
       <c r="H10" s="0">
-        <v>304.5</v>
+        <v>301.41668606351328</v>
       </c>
       <c r="I10" s="0">
-        <v>272.5</v>
+        <v>269.44752211915534</v>
       </c>
     </row>
     <row r="11">
@@ -397,28 +397,28 @@
         <v>1000</v>
       </c>
       <c r="B11" s="0">
-        <v>36.472023173587637</v>
+        <v>36.307865558099515</v>
       </c>
       <c r="C11" s="0">
-        <v>16.085073291113673</v>
+        <v>15.940105109052743</v>
       </c>
       <c r="D11" s="0">
-        <v>0.4410249800115883</v>
+        <v>0.43902622376811251</v>
       </c>
       <c r="E11" s="0">
-        <v>28.620321086128278</v>
+        <v>28.108837180594918</v>
       </c>
       <c r="F11" s="0">
-        <v>15.087456565624155</v>
+        <v>14.868138268071707</v>
       </c>
       <c r="G11" s="0">
-        <v>0.52715888547234913</v>
+        <v>0.5289488915014956</v>
       </c>
       <c r="H11" s="0">
-        <v>305.5</v>
+        <v>302.94848509788375</v>
       </c>
       <c r="I11" s="0">
-        <v>266.5</v>
+        <v>264.02188136912275</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/hose_insulation_sweep_results.xlsx
+++ b/Graphs/hose_insulation_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="54" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="63" uniqueCount="9">
   <si>
     <t>Hose thermal conductivity (W/m)</t>
   </si>
@@ -91,15 +91,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="true"/>
-    <col min="2" max="2" width="33.28515625" customWidth="true"/>
-    <col min="3" max="3" width="31.85546875" customWidth="true"/>
-    <col min="4" max="4" width="38.7109375" customWidth="true"/>
-    <col min="5" max="5" width="32" customWidth="true"/>
-    <col min="6" max="6" width="30.5703125" customWidth="true"/>
-    <col min="7" max="7" width="37.42578125" customWidth="true"/>
-    <col min="8" max="8" width="32.28515625" customWidth="true"/>
-    <col min="9" max="9" width="31" customWidth="true"/>
+    <col min="1" max="1" width="27.59765625" customWidth="true"/>
+    <col min="2" max="2" width="30.265625" customWidth="true"/>
+    <col min="3" max="3" width="28.86328125" customWidth="true"/>
+    <col min="4" max="4" width="35.19921875" customWidth="true"/>
+    <col min="5" max="5" width="29" customWidth="true"/>
+    <col min="6" max="6" width="27.59765625" customWidth="true"/>
+    <col min="7" max="7" width="33.9296875" customWidth="true"/>
+    <col min="8" max="8" width="29.19921875" customWidth="true"/>
+    <col min="9" max="9" width="27.9296875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -136,28 +136,28 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="B2" s="0">
-        <v>32.747103886099808</v>
+        <v>35.1503746720024</v>
       </c>
       <c r="C2" s="0">
-        <v>16.235291772124171</v>
+        <v>17.670785597472015</v>
       </c>
       <c r="D2" s="0">
-        <v>0.49577794203094644</v>
+        <v>0.50271969395384453</v>
       </c>
       <c r="E2" s="0">
-        <v>29.329734352279132</v>
+        <v>31.264566929147712</v>
       </c>
       <c r="F2" s="0">
-        <v>14.544228932394846</v>
+        <v>15.528519824842379</v>
       </c>
       <c r="G2" s="0">
-        <v>0.49588682794410155</v>
+        <v>0.49668111060144771</v>
       </c>
       <c r="H2" s="0">
-        <v>298.94080919269715</v>
+        <v>329</v>
       </c>
       <c r="I2" s="0">
-        <v>266.09999999999997</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3">
@@ -165,28 +165,28 @@
         <v>0.27825594022071243</v>
       </c>
       <c r="B3" s="0">
-        <v>32.746957623634138</v>
+        <v>35.134834138378487</v>
       </c>
       <c r="C3" s="0">
-        <v>16.236790365078853</v>
+        <v>17.713613268555051</v>
       </c>
       <c r="D3" s="0">
-        <v>0.49582591921029129</v>
+        <v>0.5041610043978012</v>
       </c>
       <c r="E3" s="0">
-        <v>29.330781263964809</v>
+        <v>31.236079736440701</v>
       </c>
       <c r="F3" s="0">
-        <v>14.552002193929548</v>
+        <v>15.502322545211564</v>
       </c>
       <c r="G3" s="0">
-        <v>0.49613414872817713</v>
+        <v>0.49629539545342538</v>
       </c>
       <c r="H3" s="0">
-        <v>299.06642613274232</v>
+        <v>329</v>
       </c>
       <c r="I3" s="0">
-        <v>265.97842601200381</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>0.774263682681127</v>
       </c>
       <c r="B4" s="0">
-        <v>32.794574618151223</v>
+        <v>35.147486636156607</v>
       </c>
       <c r="C4" s="0">
-        <v>16.281063580926102</v>
+        <v>17.666905223491057</v>
       </c>
       <c r="D4" s="0">
-        <v>0.49645600744931806</v>
+        <v>0.50265059935514467</v>
       </c>
       <c r="E4" s="0">
-        <v>29.332435052006815</v>
+        <v>31.255210658328387</v>
       </c>
       <c r="F4" s="0">
-        <v>14.538311036257536</v>
+        <v>15.518658551052091</v>
       </c>
       <c r="G4" s="0">
-        <v>0.4956394179508421</v>
+        <v>0.49651428431236405</v>
       </c>
       <c r="H4" s="0">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="I4" s="0">
-        <v>265.52392383574573</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5">
@@ -223,28 +223,28 @@
         <v>2.1544346900318834</v>
       </c>
       <c r="B5" s="0">
-        <v>32.789197862504444</v>
+        <v>35.155402561526557</v>
       </c>
       <c r="C5" s="0">
-        <v>16.275392359784536</v>
+        <v>17.680012399198397</v>
       </c>
       <c r="D5" s="0">
-        <v>0.49636445600262752</v>
+        <v>0.5029102530757843</v>
       </c>
       <c r="E5" s="0">
-        <v>29.327566802312639</v>
+        <v>31.270008324555249</v>
       </c>
       <c r="F5" s="0">
-        <v>14.586131382101064</v>
+        <v>15.533754277242013</v>
       </c>
       <c r="G5" s="0">
-        <v>0.49735225156663415</v>
+        <v>0.49676207681223722</v>
       </c>
       <c r="H5" s="0">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="I5" s="0">
-        <v>265.40362503705586</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6">
@@ -252,28 +252,28 @@
         <v>5.9948425031894086</v>
       </c>
       <c r="B6" s="0">
-        <v>32.771219651520674</v>
+        <v>34.956365027472067</v>
       </c>
       <c r="C6" s="0">
-        <v>16.25987024785578</v>
+        <v>17.765062704190537</v>
       </c>
       <c r="D6" s="0">
-        <v>0.49616310960526844</v>
+        <v>0.50820680840897059</v>
       </c>
       <c r="E6" s="0">
-        <v>29.359226109798264</v>
+        <v>31.185189005160069</v>
       </c>
       <c r="F6" s="0">
-        <v>14.559664809667597</v>
+        <v>15.452096553435139</v>
       </c>
       <c r="G6" s="0">
-        <v>0.49591446161479358</v>
+        <v>0.49549472189757615</v>
       </c>
       <c r="H6" s="0">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="I6" s="0">
-        <v>266.03888818401003</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7">
@@ -281,28 +281,28 @@
         <v>16.681005372000591</v>
       </c>
       <c r="B7" s="0">
-        <v>32.77153922543242</v>
+        <v>34.95555158795429</v>
       </c>
       <c r="C7" s="0">
-        <v>16.301069852983638</v>
+        <v>17.730655637763928</v>
       </c>
       <c r="D7" s="0">
-        <v>0.49741544761904743</v>
+        <v>0.50723432565927307</v>
       </c>
       <c r="E7" s="0">
-        <v>29.363274828059268</v>
+        <v>31.202678393192748</v>
       </c>
       <c r="F7" s="0">
-        <v>14.589906085249872</v>
+        <v>15.46863870913293</v>
       </c>
       <c r="G7" s="0">
-        <v>0.49687598439489777</v>
+        <v>0.49574714433834005</v>
       </c>
       <c r="H7" s="0">
-        <v>299.06252143878072</v>
+        <v>329</v>
       </c>
       <c r="I7" s="0">
-        <v>265.87553477537955</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8">
@@ -310,28 +310,28 @@
         <v>46.415888336127772</v>
       </c>
       <c r="B8" s="0">
-        <v>32.839755006843554</v>
+        <v>34.905943545205339</v>
       </c>
       <c r="C8" s="0">
-        <v>16.359930580749399</v>
+        <v>17.7492916032583</v>
       </c>
       <c r="D8" s="0">
-        <v>0.49817456242715924</v>
+        <v>0.5084890938493577</v>
       </c>
       <c r="E8" s="0">
-        <v>29.417666074070887</v>
+        <v>31.183607110846381</v>
       </c>
       <c r="F8" s="0">
-        <v>14.512867006680192</v>
+        <v>15.422527579624674</v>
       </c>
       <c r="G8" s="0">
-        <v>0.49333849157639403</v>
+        <v>0.49457163582144931</v>
       </c>
       <c r="H8" s="0">
-        <v>299.5</v>
+        <v>328</v>
       </c>
       <c r="I8" s="0">
-        <v>266.54062844553243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9">
@@ -339,28 +339,28 @@
         <v>129.15496650148839</v>
       </c>
       <c r="B9" s="0">
-        <v>32.83090377585529</v>
+        <v>34.769712724503215</v>
       </c>
       <c r="C9" s="0">
-        <v>16.307128354178229</v>
+        <v>17.621183242123223</v>
       </c>
       <c r="D9" s="0">
-        <v>0.49670056193125328</v>
+        <v>0.50679691781592051</v>
       </c>
       <c r="E9" s="0">
-        <v>29.627711583609319</v>
+        <v>31.381531740354475</v>
       </c>
       <c r="F9" s="0">
-        <v>14.574526125185091</v>
+        <v>15.533302874524376</v>
       </c>
       <c r="G9" s="0">
-        <v>0.49192210083643551</v>
+        <v>0.49498230370156293</v>
       </c>
       <c r="H9" s="0">
-        <v>298.5183997912448</v>
+        <v>326</v>
       </c>
       <c r="I9" s="0">
-        <v>267.43959451643218</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10">

--- a/Graphs/hose_insulation_sweep_results.xlsx
+++ b/Graphs/hose_insulation_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="63" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="9" uniqueCount="9">
   <si>
     <t>Hose thermal conductivity (W/m)</t>
   </si>
@@ -85,21 +85,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.59765625" customWidth="true"/>
-    <col min="2" max="2" width="30.265625" customWidth="true"/>
-    <col min="3" max="3" width="28.86328125" customWidth="true"/>
-    <col min="4" max="4" width="35.19921875" customWidth="true"/>
-    <col min="5" max="5" width="29" customWidth="true"/>
-    <col min="6" max="6" width="27.59765625" customWidth="true"/>
-    <col min="7" max="7" width="33.9296875" customWidth="true"/>
-    <col min="8" max="8" width="29.19921875" customWidth="true"/>
-    <col min="9" max="9" width="27.9296875" customWidth="true"/>
+    <col min="1" max="1" width="30.5703125" customWidth="true"/>
+    <col min="2" max="2" width="33.28515625" customWidth="true"/>
+    <col min="3" max="3" width="31.85546875" customWidth="true"/>
+    <col min="4" max="4" width="38.7109375" customWidth="true"/>
+    <col min="5" max="5" width="32" customWidth="true"/>
+    <col min="6" max="6" width="30.5703125" customWidth="true"/>
+    <col min="7" max="7" width="37.42578125" customWidth="true"/>
+    <col min="8" max="8" width="32.28515625" customWidth="true"/>
+    <col min="9" max="9" width="31" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -136,28 +136,28 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="B2" s="0">
-        <v>35.1503746720024</v>
+        <v>33.021340453487412</v>
       </c>
       <c r="C2" s="0">
-        <v>17.670785597472015</v>
+        <v>16.15485138519837</v>
       </c>
       <c r="D2" s="0">
-        <v>0.50271969395384453</v>
+        <v>0.48922457911584394</v>
       </c>
       <c r="E2" s="0">
-        <v>31.264566929147712</v>
+        <v>30.628679371532975</v>
       </c>
       <c r="F2" s="0">
-        <v>15.528519824842379</v>
+        <v>15.514964771876766</v>
       </c>
       <c r="G2" s="0">
-        <v>0.49668111060144771</v>
+        <v>0.50655023625657014</v>
       </c>
       <c r="H2" s="0">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="I2" s="0">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3">
@@ -165,28 +165,28 @@
         <v>0.27825594022071243</v>
       </c>
       <c r="B3" s="0">
-        <v>35.134834138378487</v>
+        <v>33.413812220088708</v>
       </c>
       <c r="C3" s="0">
-        <v>17.713613268555051</v>
+        <v>16.342884394957757</v>
       </c>
       <c r="D3" s="0">
-        <v>0.5041610043978012</v>
+        <v>0.48910565149858165</v>
       </c>
       <c r="E3" s="0">
-        <v>31.236079736440701</v>
+        <v>30.632981267112179</v>
       </c>
       <c r="F3" s="0">
-        <v>15.502322545211564</v>
+        <v>15.502730163011917</v>
       </c>
       <c r="G3" s="0">
-        <v>0.49629539545342538</v>
+        <v>0.5060797063084348</v>
       </c>
       <c r="H3" s="0">
-        <v>329</v>
+        <v>281.5</v>
       </c>
       <c r="I3" s="0">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>0.774263682681127</v>
       </c>
       <c r="B4" s="0">
-        <v>35.147486636156607</v>
+        <v>33.413306413400463</v>
       </c>
       <c r="C4" s="0">
-        <v>17.666905223491057</v>
+        <v>16.342735019339571</v>
       </c>
       <c r="D4" s="0">
-        <v>0.50265059935514467</v>
+        <v>0.48910858497934495</v>
       </c>
       <c r="E4" s="0">
-        <v>31.255210658328387</v>
+        <v>30.620730265384978</v>
       </c>
       <c r="F4" s="0">
-        <v>15.518658551052091</v>
+        <v>15.491882012391558</v>
       </c>
       <c r="G4" s="0">
-        <v>0.49651428431236405</v>
+        <v>0.50592790825450251</v>
       </c>
       <c r="H4" s="0">
-        <v>329</v>
+        <v>281.5</v>
       </c>
       <c r="I4" s="0">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5">
@@ -223,28 +223,28 @@
         <v>2.1544346900318834</v>
       </c>
       <c r="B5" s="0">
-        <v>35.155402561526557</v>
+        <v>33.409920712775829</v>
       </c>
       <c r="C5" s="0">
-        <v>17.680012399198397</v>
+        <v>16.338440916766533</v>
       </c>
       <c r="D5" s="0">
-        <v>0.5029102530757843</v>
+        <v>0.48902962258508964</v>
       </c>
       <c r="E5" s="0">
-        <v>31.270008324555249</v>
+        <v>30.608635125611251</v>
       </c>
       <c r="F5" s="0">
-        <v>15.533754277242013</v>
+        <v>15.48164799745347</v>
       </c>
       <c r="G5" s="0">
-        <v>0.49676207681223722</v>
+        <v>0.50579347736088587</v>
       </c>
       <c r="H5" s="0">
-        <v>329</v>
+        <v>281.5</v>
       </c>
       <c r="I5" s="0">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6">
@@ -252,28 +252,28 @@
         <v>5.9948425031894086</v>
       </c>
       <c r="B6" s="0">
-        <v>34.956365027472067</v>
+        <v>33.399621717575975</v>
       </c>
       <c r="C6" s="0">
-        <v>17.765062704190537</v>
+        <v>16.324393491701965</v>
       </c>
       <c r="D6" s="0">
-        <v>0.50820680840897059</v>
+        <v>0.48875983176514642</v>
       </c>
       <c r="E6" s="0">
-        <v>31.185189005160069</v>
+        <v>30.611576571382642</v>
       </c>
       <c r="F6" s="0">
-        <v>15.452096553435139</v>
+        <v>15.495070319880311</v>
       </c>
       <c r="G6" s="0">
-        <v>0.49549472189757615</v>
+        <v>0.50618334811170562</v>
       </c>
       <c r="H6" s="0">
-        <v>329</v>
+        <v>281.5</v>
       </c>
       <c r="I6" s="0">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7">
@@ -281,28 +281,28 @@
         <v>16.681005372000591</v>
       </c>
       <c r="B7" s="0">
-        <v>34.95555158795429</v>
+        <v>33.372478807473605</v>
       </c>
       <c r="C7" s="0">
-        <v>17.730655637763928</v>
+        <v>16.327958010701593</v>
       </c>
       <c r="D7" s="0">
-        <v>0.50723432565927307</v>
+        <v>0.48926416598832406</v>
       </c>
       <c r="E7" s="0">
-        <v>31.202678393192748</v>
+        <v>30.536339475890955</v>
       </c>
       <c r="F7" s="0">
-        <v>15.46863870913293</v>
+        <v>15.405236511123471</v>
       </c>
       <c r="G7" s="0">
-        <v>0.49574714433834005</v>
+        <v>0.50448864453076347</v>
       </c>
       <c r="H7" s="0">
-        <v>329</v>
+        <v>281.5</v>
       </c>
       <c r="I7" s="0">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8">
@@ -310,28 +310,28 @@
         <v>46.415888336127772</v>
       </c>
       <c r="B8" s="0">
-        <v>34.905943545205339</v>
+        <v>33.302719171229278</v>
       </c>
       <c r="C8" s="0">
-        <v>17.7492916032583</v>
+        <v>16.251722998471912</v>
       </c>
       <c r="D8" s="0">
-        <v>0.5084890938493577</v>
+        <v>0.4879998811782319</v>
       </c>
       <c r="E8" s="0">
-        <v>31.183607110846381</v>
+        <v>30.426479270873216</v>
       </c>
       <c r="F8" s="0">
-        <v>15.422527579624674</v>
+        <v>15.344592531990475</v>
       </c>
       <c r="G8" s="0">
-        <v>0.49457163582144931</v>
+        <v>0.50431705868380272</v>
       </c>
       <c r="H8" s="0">
-        <v>328</v>
+        <v>280.5</v>
       </c>
       <c r="I8" s="0">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9">
@@ -339,28 +339,28 @@
         <v>129.15496650148839</v>
       </c>
       <c r="B9" s="0">
-        <v>34.769712724503215</v>
+        <v>33.550704273626963</v>
       </c>
       <c r="C9" s="0">
-        <v>17.621183242123223</v>
+        <v>16.338668527409848</v>
       </c>
       <c r="D9" s="0">
-        <v>0.50679691781592051</v>
+        <v>0.48698436832078973</v>
       </c>
       <c r="E9" s="0">
-        <v>31.381531740354475</v>
+        <v>30.490383937456173</v>
       </c>
       <c r="F9" s="0">
-        <v>15.533302874524376</v>
+        <v>15.386239599786634</v>
       </c>
       <c r="G9" s="0">
-        <v>0.49498230370156293</v>
+        <v>0.50462597097327055</v>
       </c>
       <c r="H9" s="0">
-        <v>326</v>
+        <v>279</v>
       </c>
       <c r="I9" s="0">
-        <v>235</v>
+        <v>244.5</v>
       </c>
     </row>
     <row r="10">
@@ -368,57 +368,28 @@
         <v>359.38136638046257</v>
       </c>
       <c r="B10" s="0">
-        <v>33.707146251481262</v>
+        <v>33.313167932190616</v>
       </c>
       <c r="C10" s="0">
-        <v>16.247002486075406</v>
+        <v>16.292514265091672</v>
       </c>
       <c r="D10" s="0">
-        <v>0.48200468722152445</v>
+        <v>0.48907129751980644</v>
       </c>
       <c r="E10" s="0">
-        <v>30.298922333187861</v>
+        <v>30.652648515608874</v>
       </c>
       <c r="F10" s="0">
-        <v>14.811103447021537</v>
+        <v>15.473179000380437</v>
       </c>
       <c r="G10" s="0">
-        <v>0.48883268137884317</v>
+        <v>0.50479093160583555</v>
       </c>
       <c r="H10" s="0">
-        <v>301.41668606351328</v>
+        <v>272</v>
       </c>
       <c r="I10" s="0">
-        <v>269.44752211915534</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>1000</v>
-      </c>
-      <c r="B11" s="0">
-        <v>36.307865558099515</v>
-      </c>
-      <c r="C11" s="0">
-        <v>15.940105109052743</v>
-      </c>
-      <c r="D11" s="0">
-        <v>0.43902622376811251</v>
-      </c>
-      <c r="E11" s="0">
-        <v>28.108837180594918</v>
-      </c>
-      <c r="F11" s="0">
-        <v>14.868138268071707</v>
-      </c>
-      <c r="G11" s="0">
-        <v>0.5289488915014956</v>
-      </c>
-      <c r="H11" s="0">
-        <v>302.94848509788375</v>
-      </c>
-      <c r="I11" s="0">
-        <v>264.02188136912275</v>
+        <v>240.5</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/hose_insulation_sweep_results.xlsx
+++ b/Graphs/hose_insulation_sweep_results.xlsx
@@ -85,21 +85,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="true"/>
-    <col min="2" max="2" width="33.28515625" customWidth="true"/>
-    <col min="3" max="3" width="31.85546875" customWidth="true"/>
-    <col min="4" max="4" width="38.7109375" customWidth="true"/>
-    <col min="5" max="5" width="32" customWidth="true"/>
-    <col min="6" max="6" width="30.5703125" customWidth="true"/>
-    <col min="7" max="7" width="37.42578125" customWidth="true"/>
-    <col min="8" max="8" width="32.28515625" customWidth="true"/>
-    <col min="9" max="9" width="31" customWidth="true"/>
+    <col min="1" max="1" width="27.59765625" customWidth="true"/>
+    <col min="2" max="2" width="30.265625" customWidth="true"/>
+    <col min="3" max="3" width="28.86328125" customWidth="true"/>
+    <col min="4" max="4" width="35.19921875" customWidth="true"/>
+    <col min="5" max="5" width="29" customWidth="true"/>
+    <col min="6" max="6" width="27.59765625" customWidth="true"/>
+    <col min="7" max="7" width="33.9296875" customWidth="true"/>
+    <col min="8" max="8" width="29.19921875" customWidth="true"/>
+    <col min="9" max="9" width="27.9296875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -136,28 +136,28 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="B2" s="0">
-        <v>33.021340453487412</v>
+        <v>34.904393155926961</v>
       </c>
       <c r="C2" s="0">
-        <v>16.15485138519837</v>
+        <v>16.089606651325976</v>
       </c>
       <c r="D2" s="0">
-        <v>0.48922457911584394</v>
+        <v>0.46096222270501991</v>
       </c>
       <c r="E2" s="0">
-        <v>30.628679371532975</v>
+        <v>30.633069395226826</v>
       </c>
       <c r="F2" s="0">
-        <v>15.514964771876766</v>
+        <v>15.269849988791119</v>
       </c>
       <c r="G2" s="0">
-        <v>0.50655023625657014</v>
+        <v>0.49847600290326871</v>
       </c>
       <c r="H2" s="0">
-        <v>281</v>
+        <v>339</v>
       </c>
       <c r="I2" s="0">
-        <v>247</v>
+        <v>301.5</v>
       </c>
     </row>
     <row r="3">
@@ -165,28 +165,28 @@
         <v>0.27825594022071243</v>
       </c>
       <c r="B3" s="0">
-        <v>33.413812220088708</v>
+        <v>34.90687719640686</v>
       </c>
       <c r="C3" s="0">
-        <v>16.342884394957757</v>
+        <v>16.092641777042623</v>
       </c>
       <c r="D3" s="0">
-        <v>0.48910565149858165</v>
+        <v>0.46101636896637432</v>
       </c>
       <c r="E3" s="0">
-        <v>30.632981267112179</v>
+        <v>30.631262875553546</v>
       </c>
       <c r="F3" s="0">
-        <v>15.502730163011917</v>
+        <v>15.266611017638436</v>
       </c>
       <c r="G3" s="0">
-        <v>0.5060797063084348</v>
+        <v>0.49839966049269685</v>
       </c>
       <c r="H3" s="0">
-        <v>281.5</v>
+        <v>339</v>
       </c>
       <c r="I3" s="0">
-        <v>247</v>
+        <v>301.5</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>0.774263682681127</v>
       </c>
       <c r="B4" s="0">
-        <v>33.413306413400463</v>
+        <v>34.902654088335453</v>
       </c>
       <c r="C4" s="0">
-        <v>16.342735019339571</v>
+        <v>16.090373407239497</v>
       </c>
       <c r="D4" s="0">
-        <v>0.48910858497934495</v>
+        <v>0.46100715912653006</v>
       </c>
       <c r="E4" s="0">
-        <v>30.620730265384978</v>
+        <v>30.631330987920762</v>
       </c>
       <c r="F4" s="0">
-        <v>15.491882012391558</v>
+        <v>15.268912082004395</v>
       </c>
       <c r="G4" s="0">
-        <v>0.50592790825450251</v>
+        <v>0.49847367350852551</v>
       </c>
       <c r="H4" s="0">
-        <v>281.5</v>
+        <v>339</v>
       </c>
       <c r="I4" s="0">
-        <v>247</v>
+        <v>301.5</v>
       </c>
     </row>
     <row r="5">
@@ -223,28 +223,28 @@
         <v>2.1544346900318834</v>
       </c>
       <c r="B5" s="0">
-        <v>33.409920712775829</v>
+        <v>34.900335217325917</v>
       </c>
       <c r="C5" s="0">
-        <v>16.338440916766533</v>
+        <v>16.083344130774595</v>
       </c>
       <c r="D5" s="0">
-        <v>0.48902962258508964</v>
+        <v>0.46083637966864521</v>
       </c>
       <c r="E5" s="0">
-        <v>30.608635125611251</v>
+        <v>30.631006153298273</v>
       </c>
       <c r="F5" s="0">
-        <v>15.48164799745347</v>
+        <v>15.265590679661964</v>
       </c>
       <c r="G5" s="0">
-        <v>0.50579347736088587</v>
+        <v>0.49837052701640366</v>
       </c>
       <c r="H5" s="0">
-        <v>281.5</v>
+        <v>338.5</v>
       </c>
       <c r="I5" s="0">
-        <v>247</v>
+        <v>301.5</v>
       </c>
     </row>
     <row r="6">
@@ -252,28 +252,28 @@
         <v>5.9948425031894086</v>
       </c>
       <c r="B6" s="0">
-        <v>33.399621717575975</v>
+        <v>34.902059062116741</v>
       </c>
       <c r="C6" s="0">
-        <v>16.324393491701965</v>
+        <v>16.084051007736623</v>
       </c>
       <c r="D6" s="0">
-        <v>0.48875983176514642</v>
+        <v>0.46083387169539552</v>
       </c>
       <c r="E6" s="0">
-        <v>30.611576571382642</v>
+        <v>30.614430259734988</v>
       </c>
       <c r="F6" s="0">
-        <v>15.495070319880311</v>
+        <v>15.254588001013238</v>
       </c>
       <c r="G6" s="0">
-        <v>0.50618334811170562</v>
+        <v>0.49828096984305231</v>
       </c>
       <c r="H6" s="0">
-        <v>281.5</v>
+        <v>338.5</v>
       </c>
       <c r="I6" s="0">
-        <v>247</v>
+        <v>301.5</v>
       </c>
     </row>
     <row r="7">
@@ -281,28 +281,28 @@
         <v>16.681005372000591</v>
       </c>
       <c r="B7" s="0">
-        <v>33.372478807473605</v>
+        <v>34.913142317786942</v>
       </c>
       <c r="C7" s="0">
-        <v>16.327958010701593</v>
+        <v>16.085918286271752</v>
       </c>
       <c r="D7" s="0">
-        <v>0.48926416598832406</v>
+        <v>0.46074106248742264</v>
       </c>
       <c r="E7" s="0">
-        <v>30.536339475890955</v>
+        <v>30.915778157333293</v>
       </c>
       <c r="F7" s="0">
-        <v>15.405236511123471</v>
+        <v>15.498930275205753</v>
       </c>
       <c r="G7" s="0">
-        <v>0.50448864453076347</v>
+        <v>0.50132751620645755</v>
       </c>
       <c r="H7" s="0">
-        <v>281.5</v>
+        <v>338</v>
       </c>
       <c r="I7" s="0">
-        <v>247</v>
+        <v>301.5</v>
       </c>
     </row>
     <row r="8">
@@ -310,28 +310,28 @@
         <v>46.415888336127772</v>
       </c>
       <c r="B8" s="0">
-        <v>33.302719171229278</v>
+        <v>34.954009431737539</v>
       </c>
       <c r="C8" s="0">
-        <v>16.251722998471912</v>
+        <v>16.131814095082728</v>
       </c>
       <c r="D8" s="0">
-        <v>0.4879998811782319</v>
+        <v>0.46151541289095621</v>
       </c>
       <c r="E8" s="0">
-        <v>30.426479270873216</v>
+        <v>30.816875756889921</v>
       </c>
       <c r="F8" s="0">
-        <v>15.344592531990475</v>
+        <v>15.407115015040635</v>
       </c>
       <c r="G8" s="0">
-        <v>0.50431705868380272</v>
+        <v>0.49995707340955775</v>
       </c>
       <c r="H8" s="0">
-        <v>280.5</v>
+        <v>337</v>
       </c>
       <c r="I8" s="0">
-        <v>246</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9">
@@ -339,28 +339,28 @@
         <v>129.15496650148839</v>
       </c>
       <c r="B9" s="0">
-        <v>33.550704273626963</v>
+        <v>34.754306317984621</v>
       </c>
       <c r="C9" s="0">
-        <v>16.338668527409848</v>
+        <v>15.974767991636696</v>
       </c>
       <c r="D9" s="0">
-        <v>0.48698436832078973</v>
+        <v>0.45964859276647657</v>
       </c>
       <c r="E9" s="0">
-        <v>30.490383937456173</v>
+        <v>30.884770773729109</v>
       </c>
       <c r="F9" s="0">
-        <v>15.386239599786634</v>
+        <v>15.418543610312238</v>
       </c>
       <c r="G9" s="0">
-        <v>0.50462597097327055</v>
+        <v>0.49922804100678003</v>
       </c>
       <c r="H9" s="0">
-        <v>279</v>
+        <v>334.5</v>
       </c>
       <c r="I9" s="0">
-        <v>244.5</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10">
@@ -368,28 +368,57 @@
         <v>359.38136638046257</v>
       </c>
       <c r="B10" s="0">
-        <v>33.313167932190616</v>
+        <v>34.997256415769407</v>
       </c>
       <c r="C10" s="0">
-        <v>16.292514265091672</v>
+        <v>16.07071326634804</v>
       </c>
       <c r="D10" s="0">
-        <v>0.48907129751980644</v>
+        <v>0.45919923194627166</v>
       </c>
       <c r="E10" s="0">
-        <v>30.652648515608874</v>
+        <v>31.292030720013706</v>
       </c>
       <c r="F10" s="0">
-        <v>15.473179000380437</v>
+        <v>15.654514132322792</v>
       </c>
       <c r="G10" s="0">
-        <v>0.50479093160583555</v>
+        <v>0.50027159542287236</v>
       </c>
       <c r="H10" s="0">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I10" s="0">
-        <v>240.5</v>
+        <v>294.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>1000</v>
+      </c>
+      <c r="B11" s="0">
+        <v>37.56518829049142</v>
+      </c>
+      <c r="C11" s="0">
+        <v>16.244581311393258</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0.43243710601884888</v>
+      </c>
+      <c r="E11" s="0">
+        <v>32.310473124006961</v>
+      </c>
+      <c r="F11" s="0">
+        <v>15.92682582135299</v>
+      </c>
+      <c r="G11" s="0">
+        <v>0.49293075221232896</v>
+      </c>
+      <c r="H11" s="0">
+        <v>310</v>
+      </c>
+      <c r="I11" s="0">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
